--- a/AutomationFramework.WASA3/src/test/resources/TestData.xlsx
+++ b/AutomationFramework.WASA3/src/test/resources/TestData.xlsx
@@ -3,15 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16260" windowHeight="3690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="1" r:id="rId1"/>
     <sheet name="Organization" sheetId="2" r:id="rId2"/>
+    <sheet name="Product" sheetId="3" r:id="rId3"/>
+    <sheet name="Campaign" sheetId="4" r:id="rId4"/>
+    <sheet name="Multiple" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:I10"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
   <si>
     <t>TC_ID</t>
   </si>
@@ -93,6 +100,72 @@
   </si>
   <si>
     <t>Press</t>
+  </si>
+  <si>
+    <t>CreateProduct</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Vtiger</t>
+  </si>
+  <si>
+    <t>CreateProductWith</t>
+  </si>
+  <si>
+    <t>Product Category dropdown</t>
+  </si>
+  <si>
+    <t>CRM Applications</t>
+  </si>
+  <si>
+    <t>Campaign Name</t>
+  </si>
+  <si>
+    <t>Start Campaign</t>
+  </si>
+  <si>
+    <t>CreateCampaign</t>
+  </si>
+  <si>
+    <t>CreateCampaignWithProductAndDate</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2023-03-06</t>
+  </si>
+  <si>
+    <t>OrgName</t>
+  </si>
+  <si>
+    <t>IndustryType</t>
+  </si>
+  <si>
+    <t>Consulting</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Byjus</t>
+  </si>
+  <si>
+    <t>ONGC</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Bajaj</t>
   </si>
 </sst>
 </file>
@@ -134,9 +207,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +626,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,4 +724,220 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AutomationFramework.WASA3/src/test/resources/TestData.xlsx
+++ b/AutomationFramework.WASA3/src/test/resources/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Product" sheetId="3" r:id="rId3"/>
     <sheet name="Campaign" sheetId="4" r:id="rId4"/>
     <sheet name="Multiple" sheetId="5" r:id="rId5"/>
+    <sheet name="Quotes" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
   <si>
     <t>TC_ID</t>
   </si>
@@ -166,6 +167,33 @@
   </si>
   <si>
     <t>Bajaj</t>
+  </si>
+  <si>
+    <t>CreateQuotes</t>
+  </si>
+  <si>
+    <t>Subject Name</t>
+  </si>
+  <si>
+    <t>Quotation</t>
+  </si>
+  <si>
+    <t>Quote Stage</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Bill Adress</t>
+  </si>
+  <si>
+    <t>243/127 Rewa Road</t>
+  </si>
+  <si>
+    <t>Wipro33</t>
+  </si>
+  <si>
+    <t>Vtiger101</t>
   </si>
 </sst>
 </file>
@@ -626,7 +654,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="A1:XFD1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +759,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,7 +907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -940,4 +968,74 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>